--- a/scimagojr/scimagojr_2015.xlsx
+++ b/scimagojr/scimagojr_2015.xlsx
@@ -155,15 +155,15 @@
     <t>Singapore</t>
   </si>
   <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>Israel</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -188,12 +188,12 @@
     <t>New Zealand</t>
   </si>
   <si>
+    <t>Ireland</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -275,12 +275,12 @@
     <t>Lebanon</t>
   </si>
   <si>
+    <t>Cuba</t>
+  </si>
+  <si>
     <t>Iraq</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -302,12 +302,12 @@
     <t>Ghana</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Macao</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -416,12 +416,12 @@
     <t>Bahrain</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Moldova</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -431,12 +431,12 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
@@ -482,12 +482,12 @@
     <t>Gabon</t>
   </si>
   <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
@@ -500,18 +500,18 @@
     <t>El Salvador</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Monaco</t>
+    <t>Liechtenstein</t>
   </si>
   <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
@@ -524,16 +524,16 @@
     <t>Sierra Leone</t>
   </si>
   <si>
+    <t>Haïti</t>
+  </si>
+  <si>
     <t>Nicaragua</t>
   </si>
   <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Haïti</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Honduras</t>
@@ -560,33 +560,33 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>Faroe Islands</t>
   </si>
   <si>
     <t>Liberia</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
+    <t>Seychelles</t>
   </si>
   <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
     <t>Bahamas</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
     <t>Bermuda</t>
   </si>
   <si>
@@ -596,30 +596,30 @@
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
     <t>Guyana</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>Vanuatu</t>
   </si>
   <si>
@@ -644,46 +644,49 @@
     <t>Andorra</t>
   </si>
   <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
     <t>Somalia</t>
   </si>
   <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Republic of South Sudan</t>
-  </si>
-  <si>
     <t>Aruba</t>
   </si>
   <si>
     <t>Saint Lucia</t>
   </si>
   <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>Anguilla</t>
+    <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
     <t>Antigua and Barbuda</t>
@@ -692,30 +695,27 @@
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
     <t>American Samoa</t>
   </si>
   <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
     <t>Cook Islands</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
     <t>Montserrat</t>
   </si>
   <si>
+    <t>Comoros</t>
+  </si>
+  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>Kiribati</t>
   </si>
   <si>
@@ -731,40 +731,40 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
     <t>Nauru</t>
   </si>
   <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
     <t>Vatican City State</t>
   </si>
   <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
+    <t>Pitcairn</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
     <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
-    <t>Pitcairn</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
   </si>
 </sst>
 </file>
@@ -908,22 +908,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>693179</v>
+        <v>699051</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>575729</v>
+        <v>578104</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>14757718</v>
+        <v>19856656</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>6217848</v>
+        <v>7819940</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>21.29</v>
+        <v>28.41</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -937,22 +937,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>465328</v>
+        <v>464158</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>453473</v>
+        <v>454252</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7638213</v>
+        <v>10002760</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4602159</v>
+        <v>5918990</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>16.41</v>
+        <v>21.55</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -966,22 +966,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>206999</v>
+        <v>209395</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>168398</v>
+        <v>169381</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4656693</v>
+        <v>6234014</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1051482</v>
+        <v>1292037</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>22.5</v>
+        <v>29.77</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>179517</v>
+        <v>180289</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>159914</v>
+        <v>160884</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3814717</v>
+        <v>5034970</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>918230</v>
+        <v>1106488</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>21.25</v>
+        <v>27.93</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1024,22 +1024,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>145567</v>
+        <v>144731</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>133772</v>
+        <v>133184</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1671846</v>
+        <v>2265719</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>568807</v>
+        <v>771282</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>11.49</v>
+        <v>15.65</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1053,22 +1053,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>130268</v>
+        <v>130216</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>119864</v>
+        <v>119995</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1868888</v>
+        <v>2444561</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>460989</v>
+        <v>554116</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>14.35</v>
+        <v>18.77</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1082,22 +1082,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>124189</v>
+        <v>124342</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>111642</v>
+        <v>112089</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2499717</v>
+        <v>3263119</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>491855</v>
+        <v>586682</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>20.13</v>
+        <v>26.24</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1111,22 +1111,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>114559</v>
+        <v>114786</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>100441</v>
+        <v>100814</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2352378</v>
+        <v>3074832</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>582076</v>
+        <v>699768</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>20.53</v>
+        <v>26.79</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1140,22 +1140,22 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>107891</v>
+        <v>108554</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>93220</v>
+        <v>93695</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2528771</v>
+        <v>3431270</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>418480</v>
+        <v>517078</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>23.44</v>
+        <v>31.61</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1169,22 +1169,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>98298</v>
+        <v>99444</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>84215</v>
+        <v>84727</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2346312</v>
+        <v>3177000</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>455925</v>
+        <v>559049</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>23.87</v>
+        <v>31.95</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1198,22 +1198,22 @@
         <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>91670</v>
+        <v>91744</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>82398</v>
+        <v>82667</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1849924</v>
+        <v>2437242</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>376816</v>
+        <v>455684</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>20.18</v>
+        <v>26.57</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1227,22 +1227,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>82714</v>
+        <v>82360</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>79217</v>
+        <v>79409</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1416498</v>
+        <v>1859283</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>264517</v>
+        <v>312093</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>17.13</v>
+        <v>22.58</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1256,22 +1256,22 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>71504</v>
+        <v>71633</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>66791</v>
+        <v>67085</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>987188</v>
+        <v>1312152</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>289262</v>
+        <v>363691</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>13.81</v>
+        <v>18.32</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1285,22 +1285,22 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>69425</v>
+        <v>69509</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>67172</v>
+        <v>67402</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>609839</v>
+        <v>765574</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>252671</v>
+        <v>295983</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>8.78</v>
+        <v>11.01</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1314,22 +1314,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>60481</v>
+        <v>60501</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>52932</v>
+        <v>53127</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1728787</v>
+        <v>2338707</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>255758</v>
+        <v>306636</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>28.58</v>
+        <v>38.66</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1343,22 +1343,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>46607</v>
+        <v>46662</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>41281</v>
+        <v>41454</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1431408</v>
+        <v>1904359</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>181830</v>
+        <v>215054</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>30.71</v>
+        <v>40.81</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1372,22 +1372,22 @@
         <v>32</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>46248</v>
+        <v>46135</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>44622</v>
+        <v>44836</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>685825</v>
+        <v>899600</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>226615</v>
+        <v>271306</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>14.83</v>
+        <v>19.5</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1401,22 +1401,22 @@
         <v>32</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>45086</v>
+        <v>45064</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>40641</v>
+        <v>40744</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>544665</v>
+        <v>731374</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>99925</v>
+        <v>126891</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>12.08</v>
+        <v>16.23</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1430,22 +1430,22 @@
         <v>28</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>44814</v>
+        <v>44740</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>41917</v>
+        <v>41962</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>601505</v>
+        <v>778574</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>148019</v>
+        <v>173208</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>13.42</v>
+        <v>17.4</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1459,22 +1459,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>41438</v>
+        <v>41384</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>36858</v>
+        <v>36965</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1081164</v>
+        <v>1428586</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>152090</v>
+        <v>180852</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>26.09</v>
+        <v>34.52</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1488,22 +1488,22 @@
         <v>12</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>39167</v>
+        <v>39005</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>37078</v>
+        <v>37137</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>605935</v>
+        <v>790145</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>92584</v>
+        <v>108458</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>15.47</v>
+        <v>20.26</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1517,22 +1517,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>34537</v>
+        <v>34568</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>30603</v>
+        <v>30704</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>884830</v>
+        <v>1164902</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>108541</v>
+        <v>126405</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>25.62</v>
+        <v>33.7</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1546,22 +1546,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>28329</v>
+        <v>28242</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>27139</v>
+        <v>27109</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>399581</v>
+        <v>539357</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>83701</v>
+        <v>102182</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>14.11</v>
+        <v>19.1</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1575,22 +1575,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>27663</v>
+        <v>27818</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>24555</v>
+        <v>24747</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>827141</v>
+        <v>1104434</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>105496</v>
+        <v>126486</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>29.9</v>
+        <v>39.7</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1604,22 +1604,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>25987</v>
+        <v>26057</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>23107</v>
+        <v>23262</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>596586</v>
+        <v>788065</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>73125</v>
+        <v>85858</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>22.96</v>
+        <v>30.24</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1633,22 +1633,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>24933</v>
+        <v>25049</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>22187</v>
+        <v>22306</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>480250</v>
+        <v>640300</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>75416</v>
+        <v>91570</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>19.26</v>
+        <v>25.56</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1662,22 +1662,22 @@
         <v>28</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>24617</v>
+        <v>24524</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>23392</v>
+        <v>23404</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>341500</v>
+        <v>438340</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>66189</v>
+        <v>75959</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>13.87</v>
+        <v>17.87</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1691,22 +1691,22 @@
         <v>26</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>22019</v>
+        <v>21976</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>20137</v>
+        <v>20125</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>304155</v>
+        <v>400640</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>56437</v>
+        <v>69858</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>13.81</v>
+        <v>18.23</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1720,22 +1720,22 @@
         <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>21648</v>
+        <v>21734</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>18532</v>
+        <v>18613</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>505942</v>
+        <v>672906</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>67165</v>
+        <v>80588</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>23.37</v>
+        <v>30.96</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1749,22 +1749,22 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>21364</v>
+        <v>21513</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>18913</v>
+        <v>19008</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>607136</v>
+        <v>796580</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>60965</v>
+        <v>69372</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>28.42</v>
+        <v>37.03</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1775,25 +1775,25 @@
         <v>46</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>21248</v>
+        <v>21380</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>18803</v>
+        <v>18932</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>501369</v>
+        <v>500190</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>59941</v>
+        <v>92666</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>821</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1801,28 +1801,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>21178</v>
+        <v>21253</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>18740</v>
+        <v>18883</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>375786</v>
+        <v>665160</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>74228</v>
+        <v>72278</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>17.74</v>
+        <v>31.3</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>567</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1836,22 +1836,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>20800</v>
+        <v>20852</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>18754</v>
+        <v>18864</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>512826</v>
+        <v>677521</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>66587</v>
+        <v>78797</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>24.66</v>
+        <v>32.49</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1865,22 +1865,22 @@
         <v>32</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>20113</v>
+        <v>20065</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>19145</v>
+        <v>19209</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>498873</v>
+        <v>651586</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>67264</v>
+        <v>82504</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>24.8</v>
+        <v>32.47</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1894,22 +1894,22 @@
         <v>14</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>19677</v>
+        <v>19741</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>17098</v>
+        <v>17179</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>388425</v>
+        <v>505599</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>50615</v>
+        <v>60187</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>19.74</v>
+        <v>25.61</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1923,22 +1923,22 @@
         <v>12</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>19563</v>
+        <v>19610</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>17629</v>
+        <v>17675</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>560066</v>
+        <v>747543</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>56962</v>
+        <v>67636</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>28.63</v>
+        <v>38.12</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1952,22 +1952,22 @@
         <v>54</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>17226</v>
+        <v>17176</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>16382</v>
+        <v>16452</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>278210</v>
+        <v>370602</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>54780</v>
+        <v>69609</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>16.15</v>
+        <v>21.58</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1981,22 +1981,22 @@
         <v>28</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>15692</v>
+        <v>15793</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>14852</v>
+        <v>14917</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>164377</v>
+        <v>211679</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>33101</v>
+        <v>38700</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>10.48</v>
+        <v>13.4</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2010,22 +2010,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>15642</v>
+        <v>15741</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>13220</v>
+        <v>13279</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>335089</v>
+        <v>446642</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>42364</v>
+        <v>50703</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>21.42</v>
+        <v>28.37</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2036,25 +2036,25 @@
         <v>57</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>13783</v>
+        <v>13826</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>12412</v>
+        <v>11800</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>223094</v>
+        <v>453422</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>38256</v>
+        <v>41331</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>16.19</v>
+        <v>32.79</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>510</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2065,25 +2065,25 @@
         <v>58</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>13731</v>
+        <v>13791</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>11740</v>
+        <v>12442</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>341807</v>
+        <v>292804</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>35368</v>
+        <v>47721</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>24.89</v>
+        <v>21.23</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>628</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2097,22 +2097,22 @@
         <v>12</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>13298</v>
+        <v>13267</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>12483</v>
+        <v>12488</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>191637</v>
+        <v>254351</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>31718</v>
+        <v>39300</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>14.41</v>
+        <v>19.17</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2126,22 +2126,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>12776</v>
+        <v>12625</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>12113</v>
+        <v>12036</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>208043</v>
+        <v>282399</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>46743</v>
+        <v>59422</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>16.28</v>
+        <v>22.37</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2155,22 +2155,22 @@
         <v>26</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>11957</v>
+        <v>11940</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>11116</v>
+        <v>11160</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>219672</v>
+        <v>286575</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>39465</v>
+        <v>48362</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>18.37</v>
+        <v>24</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2184,22 +2184,22 @@
         <v>28</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>11168</v>
+        <v>11158</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>10232</v>
+        <v>10257</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>202191</v>
+        <v>263106</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>28463</v>
+        <v>33432</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>18.1</v>
+        <v>23.58</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2213,22 +2213,22 @@
         <v>28</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>10966</v>
+        <v>11134</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>10531</v>
+        <v>10677</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>106822</v>
+        <v>134189</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>29259</v>
+        <v>35151</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>9.74</v>
+        <v>12.05</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2242,22 +2242,22 @@
         <v>26</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>9290</v>
+        <v>9403</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>8639</v>
+        <v>8757</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>142817</v>
+        <v>184274</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>20449</v>
+        <v>24829</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>15.37</v>
+        <v>19.6</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2271,22 +2271,22 @@
         <v>12</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>8581</v>
+        <v>8615</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>8223</v>
+        <v>8256</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>92597</v>
+        <v>123310</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>23753</v>
+        <v>30413</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>10.79</v>
+        <v>14.31</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2300,22 +2300,22 @@
         <v>28</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>7720</v>
+        <v>7706</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>7421</v>
+        <v>7420</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>96462</v>
+        <v>122576</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>16672</v>
+        <v>19193</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>12.5</v>
+        <v>15.91</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2329,22 +2329,22 @@
         <v>28</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>7616</v>
+        <v>7514</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>7043</v>
+        <v>6974</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>122061</v>
+        <v>158677</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>17171</v>
+        <v>20366</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>16.03</v>
+        <v>21.12</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2355,25 +2355,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>7482</v>
+        <v>7478</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>6970</v>
+        <v>6980</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>97084</v>
+        <v>130130</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>16560</v>
+        <v>19997</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>12.98</v>
+        <v>17.4</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2387,22 +2387,22 @@
         <v>28</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>6917</v>
+        <v>6905</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>6349</v>
+        <v>6361</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>92591</v>
+        <v>121328</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>12056</v>
+        <v>14519</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>13.39</v>
+        <v>17.57</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2416,22 +2416,22 @@
         <v>28</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>6532</v>
+        <v>6516</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>6032</v>
+        <v>6027</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>114293</v>
+        <v>149858</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>14460</v>
+        <v>17036</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2442,25 +2442,25 @@
         <v>71</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>6315</v>
+        <v>6359</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>5797</v>
+        <v>5856</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>89225</v>
+        <v>119997</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>14520</v>
+        <v>19590</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>14.13</v>
+        <v>18.87</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2471,25 +2471,25 @@
         <v>72</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>6137</v>
+        <v>6104</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>5900</v>
+        <v>5891</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>60938</v>
+        <v>80423</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>14675</v>
+        <v>18355</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>9.93</v>
+        <v>13.18</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2503,22 +2503,22 @@
         <v>32</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>5028</v>
+        <v>5048</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>4549</v>
+        <v>4560</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>93369</v>
+        <v>122453</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>8611</v>
+        <v>10325</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>18.57</v>
+        <v>24.26</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2529,25 +2529,25 @@
         <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>4953</v>
+        <v>4867</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>4555</v>
+        <v>4489</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>63657</v>
+        <v>81845</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>11008</v>
+        <v>13969</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>12.85</v>
+        <v>16.82</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2561,22 +2561,22 @@
         <v>12</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>4544</v>
+        <v>4529</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>4363</v>
+        <v>4372</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>87826</v>
+        <v>114934</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>12617</v>
+        <v>15386</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>19.33</v>
+        <v>25.38</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2590,22 +2590,22 @@
         <v>28</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>4229</v>
+        <v>4220</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>3920</v>
+        <v>3931</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>72627</v>
+        <v>92406</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>7568</v>
+        <v>8892</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>17.17</v>
+        <v>21.9</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2619,22 +2619,22 @@
         <v>12</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>3955</v>
+        <v>3948</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>3665</v>
+        <v>3678</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>73051</v>
+        <v>100089</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>10165</v>
+        <v>13452</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>18.47</v>
+        <v>25.35</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2648,22 +2648,22 @@
         <v>28</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>3645</v>
+        <v>3663</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>3491</v>
+        <v>3504</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>57422</v>
+        <v>75346</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>8051</v>
+        <v>9325</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>15.75</v>
+        <v>20.57</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2677,22 +2677,22 @@
         <v>32</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>3339</v>
+        <v>3351</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>3032</v>
+        <v>3057</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>95822</v>
+        <v>124233</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>7558</v>
+        <v>8548</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>28.7</v>
+        <v>37.07</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2706,22 +2706,22 @@
         <v>28</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>3096</v>
+        <v>3104</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>2823</v>
+        <v>2828</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>91016</v>
+        <v>118020</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>9270</v>
+        <v>10599</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>29.4</v>
+        <v>38.02</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2735,22 +2735,22 @@
         <v>12</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>2840</v>
+        <v>2878</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2534</v>
+        <v>2575</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>51054</v>
+        <v>64885</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>5104</v>
+        <v>6253</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>17.98</v>
+        <v>22.55</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2761,25 +2761,25 @@
         <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>2743</v>
+        <v>2765</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>2400</v>
+        <v>2423</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>77773</v>
+        <v>105738</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>8501</v>
+        <v>10881</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>28.35</v>
+        <v>38.24</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2793,22 +2793,22 @@
         <v>32</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>2535</v>
+        <v>2561</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>49618</v>
+        <v>65290</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>5267</v>
+        <v>6602</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>18.54</v>
+        <v>24.31</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2822,22 +2822,22 @@
         <v>12</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>2491</v>
+        <v>2486</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>18559</v>
+        <v>24868</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>3964</v>
+        <v>5074</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>7.19</v>
+        <v>9.66</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2851,22 +2851,22 @@
         <v>32</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>2536</v>
+        <v>2523</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>2307</v>
+        <v>2316</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>52382</v>
+        <v>68641</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>4198</v>
+        <v>4913</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>20.66</v>
+        <v>27.21</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2877,25 +2877,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2239</v>
+        <v>2232</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>2136</v>
+        <v>2076</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>39570</v>
+        <v>26073</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>6425</v>
+        <v>3411</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>17.67</v>
+        <v>11.68</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>155</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2906,25 +2906,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>2232</v>
+        <v>2225</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>2076</v>
+        <v>2135</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>19292</v>
+        <v>52900</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>2801</v>
+        <v>8176</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>8.64</v>
+        <v>23.78</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2941,19 +2941,19 @@
         <v>2185</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>62296</v>
+        <v>80474</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>4927</v>
+        <v>5754</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>28.51</v>
+        <v>36.83</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2967,22 +2967,22 @@
         <v>26</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>55306</v>
+        <v>73248</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>4601</v>
+        <v>5931</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>25.7</v>
+        <v>34.01</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2996,22 +2996,22 @@
         <v>28</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>2071</v>
+        <v>2084</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>29959</v>
+        <v>39368</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3654</v>
+        <v>4203</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>14.47</v>
+        <v>18.89</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3025,22 +3025,22 @@
         <v>14</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>50037</v>
+        <v>65509</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>3827</v>
+        <v>4375</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>24.5</v>
+        <v>32.07</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3051,25 +3051,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1857</v>
+        <v>1862</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>49144</v>
+        <v>63506</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>9819</v>
+        <v>13899</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>24.46</v>
+        <v>31.56</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3083,22 +3083,22 @@
         <v>26</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>19168</v>
+        <v>25790</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1815</v>
+        <v>2076</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>10.47</v>
+        <v>14.07</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3109,25 +3109,25 @@
         <v>94</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1821</v>
+        <v>1827</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>38619</v>
+        <v>52338</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>5435</v>
+        <v>7496</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>21.21</v>
+        <v>28.65</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3138,25 +3138,25 @@
         <v>95</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1637</v>
+        <v>1740</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>48882</v>
+        <v>33267</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>4022</v>
+        <v>5813</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>27.02</v>
+        <v>18.34</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>178</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3167,25 +3167,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1724</v>
+        <v>1637</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>27859</v>
+        <v>63537</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>5405</v>
+        <v>4540</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>15.44</v>
+        <v>35.32</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3202,19 +3202,19 @@
         <v>1699</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>28415</v>
+        <v>37973</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>3758</v>
+        <v>4584</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>16.72</v>
+        <v>22.35</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3228,22 +3228,22 @@
         <v>32</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1655</v>
+        <v>1664</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1514</v>
+        <v>1523</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>34685</v>
+        <v>45590</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>2440</v>
+        <v>2940</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>20.96</v>
+        <v>27.4</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3257,22 +3257,22 @@
         <v>14</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1412</v>
+        <v>1428</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>61339</v>
+        <v>78837</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>4453</v>
+        <v>5242</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>38.31</v>
+        <v>49.06</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3286,22 +3286,22 @@
         <v>32</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1437</v>
+        <v>1445</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>20718</v>
+        <v>26611</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1791</v>
+        <v>2188</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>13.24</v>
+        <v>17.01</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3315,22 +3315,22 @@
         <v>12</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>38624</v>
+        <v>48985</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>3131</v>
+        <v>3802</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>25.8</v>
+        <v>32.63</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3341,25 +3341,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>41527</v>
+        <v>52972</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>5059</v>
+        <v>6426</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>27.93</v>
+        <v>35.53</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3370,25 +3370,25 @@
         <v>103</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>38979</v>
+        <v>50247</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>4236</v>
+        <v>5248</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>27.33</v>
+        <v>35.26</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3402,22 +3402,22 @@
         <v>26</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1290</v>
+        <v>1297</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>42059</v>
+        <v>53616</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>3019</v>
+        <v>3685</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>29.66</v>
+        <v>37.73</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3431,22 +3431,22 @@
         <v>28</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>1328</v>
+        <v>1337</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>43974</v>
+        <v>52437</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3391</v>
+        <v>3703</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>33.11</v>
+        <v>39.22</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3457,25 +3457,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>26172</v>
+        <v>33851</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>3537</v>
+        <v>4445</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>20.72</v>
+        <v>26.91</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3489,22 +3489,22 @@
         <v>12</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>19221</v>
+        <v>26657</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>3204</v>
+        <v>4116</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>15.78</v>
+        <v>21.92</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3518,22 +3518,22 @@
         <v>28</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>23554</v>
+        <v>27769</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>4442</v>
+        <v>4793</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>21.45</v>
+        <v>25.48</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3547,22 +3547,22 @@
         <v>28</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>12322</v>
+        <v>16132</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1021</v>
+        <v>1222</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>12.31</v>
+        <v>16.21</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3576,22 +3576,22 @@
         <v>28</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>14743</v>
+        <v>20009</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1158</v>
+        <v>1347</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>15.04</v>
+        <v>20.59</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3605,22 +3605,22 @@
         <v>26</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>17186</v>
+        <v>22392</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1862</v>
+        <v>2201</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>18.93</v>
+        <v>24.72</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3634,22 +3634,22 @@
         <v>28</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>19291</v>
+        <v>22365</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>2094</v>
+        <v>2537</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>22.78</v>
+        <v>26.69</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3663,22 +3663,22 @@
         <v>26</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>26705</v>
+        <v>35035</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>793</v>
+        <v>981</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>33.01</v>
+        <v>43.47</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3689,25 +3689,25 @@
         <v>114</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>11839</v>
+        <v>14951</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1139</v>
+        <v>1290</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>14.87</v>
+        <v>18.93</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3721,22 +3721,22 @@
         <v>14</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>16258</v>
+        <v>21279</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1234</v>
+        <v>1422</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>21.91</v>
+        <v>28.79</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3747,25 +3747,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>11337</v>
+        <v>15244</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1525</v>
+        <v>1907</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>16.08</v>
+        <v>21.56</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3776,25 +3776,25 @@
         <v>117</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>18293</v>
+        <v>23919</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>761</v>
+        <v>959</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>26.51</v>
+        <v>34.92</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3805,25 +3805,25 @@
         <v>118</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>16202</v>
+        <v>21937</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1757</v>
+        <v>2216</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>27.14</v>
+        <v>36.99</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3837,22 +3837,22 @@
         <v>32</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>16497</v>
+        <v>20994</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>555</v>
+        <v>650</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>28.3</v>
+        <v>36.32</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3863,25 +3863,25 @@
         <v>120</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>541</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>9632</v>
+        <v>12528</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1102</v>
+        <v>1374</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>16.87</v>
+        <v>22.06</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3895,22 +3895,22 @@
         <v>32</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>17877</v>
+        <v>23229</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>904</v>
+        <v>1008</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>32.39</v>
+        <v>41.55</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3924,22 +3924,22 @@
         <v>26</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>19515</v>
+        <v>25382</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1699</v>
+        <v>2008</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>36.14</v>
+        <v>47.18</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3950,25 +3950,25 @@
         <v>123</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>20875</v>
+        <v>26646</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1246</v>
+        <v>1515</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>40.07</v>
+        <v>51.34</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3982,22 +3982,22 @@
         <v>28</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>5063</v>
+        <v>6825</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>10.01</v>
+        <v>13.46</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4008,25 +4008,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>13162</v>
+        <v>17087</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>661</v>
+        <v>845</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>26.54</v>
+        <v>34.38</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4040,22 +4040,22 @@
         <v>12</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>3773</v>
+        <v>5176</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>944</v>
+        <v>1442</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>7.78</v>
+        <v>10.58</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4069,22 +4069,22 @@
         <v>12</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>409</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>7707</v>
+        <v>9529</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>767</v>
+        <v>921</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>16.57</v>
+        <v>20.45</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4095,25 +4095,25 @@
         <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>429</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>13979</v>
+        <v>17351</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>30.52</v>
+        <v>38.13</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4124,25 +4124,25 @@
         <v>129</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>16099</v>
+        <v>20782</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>35.3</v>
+        <v>45.78</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4153,25 +4153,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>17521</v>
+        <v>22235</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>899</v>
+        <v>1100</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>38.59</v>
+        <v>49.52</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4182,25 +4182,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>400</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>18310</v>
+        <v>22749</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>41.8</v>
+        <v>52.42</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4214,22 +4214,22 @@
         <v>32</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>19542</v>
+        <v>21041</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>45.03</v>
+        <v>48.93</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4240,25 +4240,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>7817</v>
+        <v>15276</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>728</v>
+        <v>398</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>19.16</v>
+        <v>36.99</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4269,25 +4269,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>11030</v>
+        <v>10272</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>331</v>
+        <v>851</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>27.23</v>
+        <v>24.99</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4301,22 +4301,22 @@
         <v>28</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>3029</v>
+        <v>3935</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>7.93</v>
+        <v>10.38</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4330,22 +4330,22 @@
         <v>12</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>9908</v>
+        <v>12805</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>1120</v>
+        <v>1266</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>27.07</v>
+        <v>35.28</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4359,22 +4359,22 @@
         <v>26</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>5407</v>
+        <v>7450</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>14.81</v>
+        <v>20.52</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4385,25 +4385,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>8357</v>
+        <v>9251</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>690</v>
+        <v>1010</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>23.67</v>
+        <v>26.51</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4414,25 +4414,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>348</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>6983</v>
+        <v>11195</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>20.07</v>
+        <v>32.17</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4446,22 +4446,22 @@
         <v>32</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>9227</v>
+        <v>11884</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>398</v>
+        <v>502</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>27.38</v>
+        <v>34.95</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4475,22 +4475,22 @@
         <v>26</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>309</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>8592</v>
+        <v>11731</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>484</v>
+        <v>586</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>25.57</v>
+        <v>35.02</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4501,25 +4501,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>18008</v>
+        <v>21955</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>668</v>
+        <v>765</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>53.92</v>
+        <v>65.93</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4530,25 +4530,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>5465</v>
+        <v>7292</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>529</v>
+        <v>649</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>16.61</v>
+        <v>22.1</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4559,25 +4559,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>5359</v>
+        <v>6774</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>748</v>
+        <v>922</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>16.39</v>
+        <v>20.97</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4591,22 +4591,22 @@
         <v>26</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>259</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>7255</v>
+        <v>9303</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>406</v>
+        <v>512</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>25.19</v>
+        <v>32.53</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4620,22 +4620,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>245</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>17843</v>
+        <v>21670</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>554</v>
+        <v>652</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>62.17</v>
+        <v>76.3</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4646,25 +4646,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>259</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>9056</v>
+        <v>11021</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>32.69</v>
+        <v>40.67</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4678,22 +4678,22 @@
         <v>12</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>6370</v>
+        <v>7848</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>24.79</v>
+        <v>30.78</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4704,25 +4704,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>5421</v>
+        <v>7373</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>22.13</v>
+        <v>30.34</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4736,22 +4736,22 @@
         <v>12</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>5218</v>
+        <v>5718</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>22.89</v>
+        <v>24.97</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4765,22 +4765,22 @@
         <v>26</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>6899</v>
+        <v>9362</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>30.39</v>
+        <v>41.06</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4791,25 +4791,25 @@
         <v>152</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>6813</v>
+        <v>10841</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>32.29</v>
+        <v>52.88</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4823,22 +4823,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>12484</v>
+        <v>15480</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>61.8</v>
+        <v>77.01</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4849,25 +4849,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>6014</v>
+        <v>7758</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>30.53</v>
+        <v>39.78</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4878,25 +4878,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1391</v>
+        <v>18479</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>119</v>
+        <v>489</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>7.52</v>
+        <v>101.53</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4907,25 +4907,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>181</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>14989</v>
+        <v>1851</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>424</v>
+        <v>160</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>82.81</v>
+        <v>10.23</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4936,25 +4936,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>166</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>23607</v>
+        <v>30870</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>421</v>
+        <v>505</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>134.13</v>
+        <v>176.4</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4971,19 +4971,19 @@
         <v>171</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>4787</v>
+        <v>6487</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>27.99</v>
+        <v>37.94</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -5003,16 +5003,16 @@
         <v>109</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2714</v>
+        <v>3969</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>17.07</v>
+        <v>24.96</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5026,22 +5026,22 @@
         <v>26</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>148</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>2688</v>
+        <v>3516</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>17.01</v>
+        <v>22.39</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5052,25 +5052,25 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>14551</v>
+        <v>6450</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>143</v>
+        <v>349</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>95.1</v>
+        <v>42.72</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5081,25 +5081,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>4811</v>
+        <v>18571</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>32.29</v>
+        <v>122.99</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5110,25 +5110,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>144</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>2996</v>
+        <v>4683</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>20.81</v>
+        <v>32.52</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5139,25 +5139,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>3285</v>
+        <v>3912</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>23.3</v>
+        <v>27.55</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5171,22 +5171,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>4732</v>
+        <v>5809</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>35.58</v>
+        <v>42.71</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5206,16 +5206,16 @@
         <v>125</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>3437</v>
+        <v>4585</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>25.84</v>
+        <v>34.47</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5229,22 +5229,22 @@
         <v>12</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>995</v>
+        <v>1382</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>7.54</v>
+        <v>10.63</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5255,7 +5255,7 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>124</v>
@@ -5264,16 +5264,16 @@
         <v>104</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>11559</v>
+        <v>15916</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>93.22</v>
+        <v>128.35</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5287,22 +5287,22 @@
         <v>26</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>3108</v>
+        <v>4075</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>25.9</v>
+        <v>33.68</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5313,25 +5313,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>3156</v>
+        <v>4244</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>26.3</v>
+        <v>35.07</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5342,25 +5342,25 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>2890</v>
+        <v>3730</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>24.29</v>
+        <v>31.08</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5371,25 +5371,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1535</v>
+        <v>2086</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>13.35</v>
+        <v>17.83</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5403,22 +5403,22 @@
         <v>26</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>99</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>2016</v>
+        <v>2578</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>18.16</v>
+        <v>23.65</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5429,25 +5429,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>945</v>
+        <v>1222</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>9.26</v>
+        <v>11.64</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5461,22 +5461,22 @@
         <v>12</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>82</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>3294</v>
+        <v>6565</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>33.27</v>
+        <v>65.65</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5490,22 +5490,22 @@
         <v>26</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1632</v>
+        <v>2176</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>17.18</v>
+        <v>23.15</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5519,22 +5519,22 @@
         <v>12</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>76</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>12509</v>
+        <v>15619</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>137.46</v>
+        <v>173.54</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5545,25 +5545,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>83</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1596</v>
+        <v>2117</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>17.73</v>
+        <v>23.79</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5577,22 +5577,22 @@
         <v>26</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>81</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>2569</v>
+        <v>3325</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>29.19</v>
+        <v>38.22</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5606,22 +5606,22 @@
         <v>12</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1153</v>
+        <v>1512</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>13.56</v>
+        <v>17.58</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5632,25 +5632,25 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>63</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1312</v>
+        <v>2406</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>18.22</v>
+        <v>32.51</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5661,25 +5661,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>71</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>2038</v>
+        <v>1618</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>28.7</v>
+        <v>22.79</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5690,25 +5690,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1702</v>
+        <v>2648</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>24.67</v>
+        <v>37.3</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5719,25 +5719,25 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>2799</v>
+        <v>1601</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>44.43</v>
+        <v>25.82</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5748,25 +5748,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>1184</v>
+        <v>3938</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>19.41</v>
+        <v>63.52</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5777,25 +5777,25 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>51</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>808</v>
+        <v>1058</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>13.47</v>
+        <v>17.34</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5806,25 +5806,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>53</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>811</v>
+        <v>2766</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>15.3</v>
+        <v>52.19</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5835,25 +5835,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>52</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>2147</v>
+        <v>1253</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>41.29</v>
+        <v>24.1</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5864,25 +5864,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>917</v>
+        <v>1048</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>17.98</v>
+        <v>20.15</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5902,16 +5902,16 @@
         <v>43</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>1627</v>
+        <v>2496</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>33.9</v>
+        <v>52</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5925,22 +5925,22 @@
         <v>22</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>40</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>8.61</v>
+        <v>10.83</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5951,7 +5951,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>46</v>
@@ -5960,16 +5960,16 @@
         <v>40</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>792</v>
+        <v>1009</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>17.22</v>
+        <v>21.93</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5980,25 +5980,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>753</v>
+        <v>1157</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>17.51</v>
+        <v>27.55</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6009,25 +6009,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>921</v>
+        <v>1262</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>21.93</v>
+        <v>30.78</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6038,25 +6038,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>937</v>
+        <v>778</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>22.85</v>
+        <v>18.98</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6070,22 +6070,22 @@
         <v>26</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>602</v>
+        <v>998</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>14.68</v>
+        <v>24.95</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6096,7 +6096,7 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>40</v>
@@ -6105,16 +6105,16 @@
         <v>37</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>342</v>
+        <v>501</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>8.55</v>
+        <v>12.53</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6134,16 +6134,16 @@
         <v>33</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>1411</v>
+        <v>1856</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>36.18</v>
+        <v>47.59</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6154,25 +6154,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>682</v>
+        <v>438</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>17.95</v>
+        <v>11.84</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6183,25 +6183,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>907</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="I184" s="0" t="n">
         <v>48</v>
-      </c>
-      <c r="D184" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="E184" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="F184" s="0" t="n">
-        <v>333</v>
-      </c>
-      <c r="G184" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H184" s="0" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="I184" s="0" t="n">
-        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6221,16 +6221,16 @@
         <v>35</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>756</v>
+        <v>945</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>21</v>
+        <v>26.25</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6250,16 +6250,16 @@
         <v>31</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>12451</v>
+        <v>15709</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>355.74</v>
+        <v>448.83</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6270,7 +6270,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>30</v>
@@ -6279,16 +6279,16 @@
         <v>29</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>399</v>
+        <v>547</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>13.3</v>
+        <v>18.23</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6308,16 +6308,16 @@
         <v>27</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>405</v>
+        <v>500</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>13.97</v>
+        <v>17.24</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6331,22 +6331,22 @@
         <v>26</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>24.48</v>
+        <v>26.46</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6366,16 +6366,16 @@
         <v>23</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>288</v>
+        <v>400</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>10.29</v>
+        <v>14.29</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6395,16 +6395,16 @@
         <v>24</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>543</v>
+        <v>706</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>20.11</v>
+        <v>26.15</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6424,16 +6424,16 @@
         <v>22</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>380</v>
+        <v>522</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>15.2</v>
+        <v>20.88</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6444,25 +6444,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>23</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>402</v>
+        <v>2237</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>17.48</v>
+        <v>97.26</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6473,25 +6473,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D194" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="G194" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E194" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="F194" s="0" t="n">
-        <v>1729</v>
-      </c>
-      <c r="G194" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H194" s="0" t="n">
-        <v>78.59</v>
+        <v>22.22</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6511,16 +6511,16 @@
         <v>20</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>10.24</v>
+        <v>12.24</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6531,25 +6531,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D196" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E196" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E196" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="F196" s="0" t="n">
-        <v>1916</v>
+        <v>2889</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>100.84</v>
+        <v>144.45</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6560,25 +6560,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>18.94</v>
+        <v>12.56</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6592,22 +6592,22 @@
         <v>22</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>24.44</v>
+        <v>27.88</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6618,25 +6618,25 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>9.67</v>
+        <v>18.82</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6647,25 +6647,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>15</v>
+        <v>14.88</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6676,25 +6676,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>11.88</v>
+        <v>15.38</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6705,25 +6705,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>11.6</v>
+        <v>23.38</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6743,16 +6743,16 @@
         <v>8</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>16.53</v>
+        <v>23.27</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6772,16 +6772,16 @@
         <v>13</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>3084</v>
+        <v>3799</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>220.29</v>
+        <v>271.36</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6792,25 +6792,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>24</v>
+        <v>12.85</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6821,25 +6821,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>110</v>
+        <v>386</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>9.17</v>
+        <v>29.69</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6856,19 +6856,19 @@
         <v>12</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>16.5</v>
+        <v>23.17</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6879,25 +6879,25 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>18.75</v>
+        <v>22.5</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6908,25 +6908,25 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D209" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E209" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E209" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="F209" s="0" t="n">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>19.64</v>
+        <v>23.83</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6940,22 +6940,22 @@
         <v>22</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>8.45</v>
+        <v>12.5</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6966,22 +6966,22 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>17.6</v>
+        <v>24.22</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>28</v>
@@ -7001,19 +7001,19 @@
         <v>9</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>170</v>
+        <v>7780</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>18.89</v>
+        <v>864.44</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7024,25 +7024,25 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>12.78</v>
+        <v>14.22</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7053,25 +7053,25 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>29.38</v>
+        <v>15</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7082,25 +7082,25 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>6469</v>
+        <v>83</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>808.63</v>
+        <v>10.38</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7111,7 +7111,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>8</v>
@@ -7120,16 +7120,16 @@
         <v>8</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>8.63</v>
+        <v>35.13</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7149,16 +7149,16 @@
         <v>6</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="G217" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>13.67</v>
+        <v>18.67</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7178,16 +7178,16 @@
         <v>5</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>12.2</v>
+        <v>17</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7198,7 +7198,7 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>4</v>
@@ -7207,16 +7207,16 @@
         <v>2</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7236,16 +7236,16 @@
         <v>4</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>13.75</v>
+        <v>18.5</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7256,7 +7256,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
@@ -7265,16 +7265,16 @@
         <v>3</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>28.33</v>
+        <v>37.33</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7285,25 +7285,25 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>11</v>
+        <v>14.67</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7323,16 +7323,16 @@
         <v>2</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7352,16 +7352,16 @@
         <v>2</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7372,25 +7372,25 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F225" s="0" t="n">
-        <v>32</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7401,22 +7401,22 @@
         <v>242</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>13.5</v>
+        <v>21.5</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>16</v>
@@ -7430,25 +7430,25 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7459,7 +7459,7 @@
         <v>244</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>2</v>
@@ -7468,16 +7468,16 @@
         <v>2</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G228" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>2</v>
+        <v>15.5</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7488,25 +7488,25 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G229" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7517,7 +7517,7 @@
         <v>246</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>1</v>
@@ -7526,16 +7526,16 @@
         <v>1</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I230" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="H230" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="I230" s="0" t="n">
-        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7546,25 +7546,25 @@
         <v>247</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G231" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7584,16 +7584,16 @@
         <v>1</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G232" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H232" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
@@ -7604,25 +7604,25 @@
         <v>249</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H233" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
